--- a/www.eia.gov/forecasts/steo/xls/Fig35.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig35.xlsx
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Estimated Unplanned Crude Oil Production Outages million bbls/day)</t>
@@ -47,9 +47,6 @@
     <t>Nigeria</t>
   </si>
   <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -62,7 +59,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
 </sst>
 </file>
@@ -143,6 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -151,9 +149,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -577,7 +572,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -904,7 +899,7 @@
                   <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.622</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -1231,7 +1226,7 @@
                   <c:v>0.57710998661000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.61275446703000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -1275,7 +1270,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig35'!$F$27</c:f>
+              <c:f>'Fig35'!$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1445,7 +1440,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig35'!$F$52:$F$99</c:f>
+              <c:f>'Fig35'!$E$52:$E$99</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1552,13 +1547,13 @@
                   <c:v>0.13800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.13100000000000001</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.12</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -1602,7 +1597,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig35'!$G$27</c:f>
+              <c:f>'Fig35'!$F$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1772,7 +1767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig35'!$G$52:$G$99</c:f>
+              <c:f>'Fig35'!$F$52:$F$99</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1885,7 +1880,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -2086,7 +2081,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig35'!$H$52:$H$99</c:f>
+              <c:f>'Fig35'!$G$52:$G$99</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="48"/>
@@ -2199,329 +2194,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig35'!$E$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Indonesia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig35'!$A$52:$A$99</c:f>
-              <c:numCache>
-                <c:formatCode>mmm\ yyyy</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>41640</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>41671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41699</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41730</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41760</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>41791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>41821</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41852</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41883</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41913</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41944</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41974</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42036</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42064</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42095</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42125</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42156</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42186</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42217</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42248</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42278</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42309</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42339</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42370</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42401</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42430</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42461</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42491</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42522</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42552</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42583</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42614</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42644</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42675</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42705</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42736</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42767</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42795</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42826</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42856</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42887</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42917</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42948</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>42979</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43009</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43040</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43070</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig35'!$E$52:$E$99</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>#N/A</c:v>
@@ -2570,11 +2243,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="446186144"/>
-        <c:axId val="690122256"/>
+        <c:axId val="501050736"/>
+        <c:axId val="501051296"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="446186144"/>
+        <c:axId val="501050736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,7 +2257,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="690122256"/>
+        <c:crossAx val="501051296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2595,7 +2268,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="690122256"/>
+        <c:axId val="501051296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -2623,7 +2296,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446186144"/>
+        <c:crossAx val="501050736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2749,7 +2422,7 @@
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900"/>
         </a:p>
@@ -2854,12 +2527,9 @@
             <v>Nigeria</v>
           </cell>
           <cell r="E27" t="str">
-            <v>Indonesia</v>
+            <v>Iraq</v>
           </cell>
           <cell r="F27" t="str">
-            <v>Iraq</v>
-          </cell>
-          <cell r="G27" t="str">
             <v>Kuwait</v>
           </cell>
         </row>
@@ -2877,15 +2547,12 @@
             <v>0.20119999999999999</v>
           </cell>
           <cell r="E52">
-            <v>0.02</v>
+            <v>0.32264112902999997</v>
           </cell>
           <cell r="F52">
-            <v>0.32264112902999997</v>
+            <v>0</v>
           </cell>
           <cell r="G52">
-            <v>0</v>
-          </cell>
-          <cell r="H52">
             <v>0</v>
           </cell>
         </row>
@@ -2903,15 +2570,12 @@
             <v>0.25119999999999998</v>
           </cell>
           <cell r="E53">
-            <v>0.02</v>
+            <v>0.107</v>
           </cell>
           <cell r="F53">
-            <v>0.107</v>
+            <v>0</v>
           </cell>
           <cell r="G53">
-            <v>0</v>
-          </cell>
-          <cell r="H53">
             <v>0</v>
           </cell>
         </row>
@@ -2929,15 +2593,12 @@
             <v>0.30120000000000002</v>
           </cell>
           <cell r="E54">
-            <v>0</v>
+            <v>0.374</v>
           </cell>
           <cell r="F54">
-            <v>0.374</v>
+            <v>0</v>
           </cell>
           <cell r="G54">
-            <v>0</v>
-          </cell>
-          <cell r="H54">
             <v>0</v>
           </cell>
         </row>
@@ -2955,15 +2616,12 @@
             <v>0.25119999999999998</v>
           </cell>
           <cell r="E55">
-            <v>0</v>
+            <v>0.3</v>
           </cell>
           <cell r="F55">
-            <v>0.3</v>
+            <v>0</v>
           </cell>
           <cell r="G55">
-            <v>0</v>
-          </cell>
-          <cell r="H55">
             <v>0</v>
           </cell>
         </row>
@@ -2981,15 +2639,12 @@
             <v>0.35120000000000001</v>
           </cell>
           <cell r="E56">
-            <v>0</v>
+            <v>0.3</v>
           </cell>
           <cell r="F56">
-            <v>0.3</v>
+            <v>0</v>
           </cell>
           <cell r="G56">
-            <v>0</v>
-          </cell>
-          <cell r="H56">
             <v>0</v>
           </cell>
         </row>
@@ -3007,15 +2662,12 @@
             <v>0.25119999999999998</v>
           </cell>
           <cell r="E57">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
           <cell r="F57">
-            <v>0.4</v>
+            <v>0</v>
           </cell>
           <cell r="G57">
-            <v>0</v>
-          </cell>
-          <cell r="H57">
             <v>0</v>
           </cell>
         </row>
@@ -3033,15 +2685,12 @@
             <v>0.20119999999999999</v>
           </cell>
           <cell r="E58">
-            <v>0</v>
+            <v>0.5</v>
           </cell>
           <cell r="F58">
-            <v>0.5</v>
+            <v>0</v>
           </cell>
           <cell r="G58">
-            <v>0</v>
-          </cell>
-          <cell r="H58">
             <v>0</v>
           </cell>
         </row>
@@ -3059,15 +2708,12 @@
             <v>0.156</v>
           </cell>
           <cell r="E59">
-            <v>0</v>
+            <v>0.45</v>
           </cell>
           <cell r="F59">
-            <v>0.45</v>
+            <v>0</v>
           </cell>
           <cell r="G59">
-            <v>0</v>
-          </cell>
-          <cell r="H59">
             <v>0</v>
           </cell>
         </row>
@@ -3085,15 +2731,12 @@
             <v>0.21560000000000001</v>
           </cell>
           <cell r="E60">
-            <v>0</v>
+            <v>0.45</v>
           </cell>
           <cell r="F60">
-            <v>0.45</v>
+            <v>0</v>
           </cell>
           <cell r="G60">
-            <v>0</v>
-          </cell>
-          <cell r="H60">
             <v>0</v>
           </cell>
         </row>
@@ -3111,15 +2754,12 @@
             <v>0.32519999999999999</v>
           </cell>
           <cell r="E61">
-            <v>0</v>
+            <v>0.42499999999999999</v>
           </cell>
           <cell r="F61">
-            <v>0.42499999999999999</v>
+            <v>0</v>
           </cell>
           <cell r="G61">
-            <v>0</v>
-          </cell>
-          <cell r="H61">
             <v>0</v>
           </cell>
         </row>
@@ -3137,15 +2777,12 @@
             <v>0.2848</v>
           </cell>
           <cell r="E62">
-            <v>0</v>
+            <v>0.4</v>
           </cell>
           <cell r="F62">
-            <v>0.4</v>
+            <v>0</v>
           </cell>
           <cell r="G62">
-            <v>0</v>
-          </cell>
-          <cell r="H62">
             <v>0</v>
           </cell>
         </row>
@@ -3163,15 +2800,12 @@
             <v>0.28960000000000002</v>
           </cell>
           <cell r="E63">
-            <v>0</v>
+            <v>0.35</v>
           </cell>
           <cell r="F63">
-            <v>0.35</v>
+            <v>0</v>
           </cell>
           <cell r="G63">
-            <v>0</v>
-          </cell>
-          <cell r="H63">
             <v>0</v>
           </cell>
         </row>
@@ -3189,15 +2823,12 @@
             <v>0.19075</v>
           </cell>
           <cell r="E64">
-            <v>0</v>
+            <v>0.3</v>
           </cell>
           <cell r="F64">
-            <v>0.3</v>
+            <v>0</v>
           </cell>
           <cell r="G64">
-            <v>0</v>
-          </cell>
-          <cell r="H64">
             <v>0</v>
           </cell>
         </row>
@@ -3215,15 +2846,12 @@
             <v>0.16689999999999999</v>
           </cell>
           <cell r="E65">
-            <v>0</v>
+            <v>0.25700000000000001</v>
           </cell>
           <cell r="F65">
-            <v>0.25700000000000001</v>
+            <v>0</v>
           </cell>
           <cell r="G65">
-            <v>0</v>
-          </cell>
-          <cell r="H65">
             <v>0</v>
           </cell>
         </row>
@@ -3241,15 +2869,12 @@
             <v>0.2419</v>
           </cell>
           <cell r="E66">
-            <v>0</v>
+            <v>0.15</v>
           </cell>
           <cell r="F66">
-            <v>0.15</v>
+            <v>0</v>
           </cell>
           <cell r="G66">
-            <v>0</v>
-          </cell>
-          <cell r="H66">
             <v>0</v>
           </cell>
         </row>
@@ -3267,15 +2892,12 @@
             <v>0.16805</v>
           </cell>
           <cell r="E67">
-            <v>0</v>
+            <v>0.1</v>
           </cell>
           <cell r="F67">
-            <v>0.1</v>
+            <v>0</v>
           </cell>
           <cell r="G67">
-            <v>0</v>
-          </cell>
-          <cell r="H67">
             <v>0</v>
           </cell>
         </row>
@@ -3293,15 +2915,12 @@
             <v>0.39305000000000001</v>
           </cell>
           <cell r="E68">
-            <v>0</v>
+            <v>0.1</v>
           </cell>
           <cell r="F68">
-            <v>0.1</v>
+            <v>0</v>
           </cell>
           <cell r="G68">
-            <v>0</v>
-          </cell>
-          <cell r="H68">
             <v>0</v>
           </cell>
         </row>
@@ -3319,15 +2938,12 @@
             <v>0.34305000000000002</v>
           </cell>
           <cell r="E69">
-            <v>0</v>
+            <v>0.127</v>
           </cell>
           <cell r="F69">
-            <v>0.127</v>
+            <v>0</v>
           </cell>
           <cell r="G69">
-            <v>0</v>
-          </cell>
-          <cell r="H69">
             <v>0</v>
           </cell>
         </row>
@@ -3345,15 +2961,12 @@
             <v>0.29304999999999998</v>
           </cell>
           <cell r="E70">
-            <v>0</v>
+            <v>0.127</v>
           </cell>
           <cell r="F70">
-            <v>0.127</v>
+            <v>0</v>
           </cell>
           <cell r="G70">
-            <v>0</v>
-          </cell>
-          <cell r="H70">
             <v>0</v>
           </cell>
         </row>
@@ -3371,15 +2984,12 @@
             <v>0.29188750000000002</v>
           </cell>
           <cell r="E71">
-            <v>0</v>
+            <v>8.8999999999999996E-2</v>
           </cell>
           <cell r="F71">
-            <v>8.8999999999999996E-2</v>
+            <v>0</v>
           </cell>
           <cell r="G71">
-            <v>0</v>
-          </cell>
-          <cell r="H71">
             <v>0</v>
           </cell>
         </row>
@@ -3397,15 +3007,12 @@
             <v>0.29538662500000001</v>
           </cell>
           <cell r="E72">
-            <v>0</v>
+            <v>7.9000000000000001E-2</v>
           </cell>
           <cell r="F72">
-            <v>7.9000000000000001E-2</v>
+            <v>0</v>
           </cell>
           <cell r="G72">
-            <v>0</v>
-          </cell>
-          <cell r="H72">
             <v>0</v>
           </cell>
         </row>
@@ -3423,15 +3030,12 @@
             <v>0.24424725875</v>
           </cell>
           <cell r="E73">
-            <v>0</v>
+            <v>0.28399999999999997</v>
           </cell>
           <cell r="F73">
-            <v>0.28399999999999997</v>
+            <v>0</v>
           </cell>
           <cell r="G73">
-            <v>0</v>
-          </cell>
-          <cell r="H73">
             <v>0</v>
           </cell>
         </row>
@@ -3449,15 +3053,12 @@
             <v>0.24311928616</v>
           </cell>
           <cell r="E74">
-            <v>0</v>
+            <v>0.109</v>
           </cell>
           <cell r="F74">
-            <v>0.109</v>
+            <v>0</v>
           </cell>
           <cell r="G74">
-            <v>0</v>
-          </cell>
-          <cell r="H74">
             <v>0</v>
           </cell>
         </row>
@@ -3475,15 +3076,12 @@
             <v>0.32165259330000001</v>
           </cell>
           <cell r="E75">
-            <v>0</v>
+            <v>0.109</v>
           </cell>
           <cell r="F75">
-            <v>0.109</v>
+            <v>0</v>
           </cell>
           <cell r="G75">
-            <v>0</v>
-          </cell>
-          <cell r="H75">
             <v>0</v>
           </cell>
         </row>
@@ -3501,15 +3099,12 @@
             <v>0.34191651681000002</v>
           </cell>
           <cell r="E76">
-            <v>0</v>
+            <v>0.109</v>
           </cell>
           <cell r="F76">
-            <v>0.109</v>
+            <v>0</v>
           </cell>
           <cell r="G76">
-            <v>0</v>
-          </cell>
-          <cell r="H76">
             <v>0</v>
           </cell>
         </row>
@@ -3527,15 +3122,12 @@
             <v>0.40385735163999997</v>
           </cell>
           <cell r="E77">
-            <v>0</v>
+            <v>0.309</v>
           </cell>
           <cell r="F77">
-            <v>0.309</v>
+            <v>0</v>
           </cell>
           <cell r="G77">
-            <v>0</v>
-          </cell>
-          <cell r="H77">
             <v>0</v>
           </cell>
         </row>
@@ -3553,15 +3145,12 @@
             <v>0.48262877811999999</v>
           </cell>
           <cell r="E78">
-            <v>0</v>
+            <v>0.28899999999999998</v>
           </cell>
           <cell r="F78">
-            <v>0.28899999999999998</v>
+            <v>0</v>
           </cell>
           <cell r="G78">
-            <v>0</v>
-          </cell>
-          <cell r="H78">
             <v>0</v>
           </cell>
         </row>
@@ -3579,15 +3168,12 @@
             <v>0.5</v>
           </cell>
           <cell r="E79">
-            <v>0</v>
+            <v>0.24399999999999999</v>
           </cell>
           <cell r="F79">
-            <v>0.24399999999999999</v>
+            <v>0</v>
           </cell>
           <cell r="G79">
-            <v>0</v>
-          </cell>
-          <cell r="H79">
             <v>0</v>
           </cell>
         </row>
@@ -3605,15 +3191,12 @@
             <v>0.75020836544000002</v>
           </cell>
           <cell r="E80">
-            <v>0</v>
+            <v>0.31900000000000001</v>
           </cell>
           <cell r="F80">
-            <v>0.31900000000000001</v>
+            <v>0</v>
           </cell>
           <cell r="G80">
-            <v>0</v>
-          </cell>
-          <cell r="H80">
             <v>0</v>
           </cell>
         </row>
@@ -3631,15 +3214,12 @@
             <v>0.61901628178000001</v>
           </cell>
           <cell r="E81">
-            <v>0</v>
+            <v>0.21</v>
           </cell>
           <cell r="F81">
-            <v>0.21</v>
+            <v>0</v>
           </cell>
           <cell r="G81">
-            <v>0</v>
-          </cell>
-          <cell r="H81">
             <v>0</v>
           </cell>
         </row>
@@ -3657,15 +3237,12 @@
             <v>0.71783611896999999</v>
           </cell>
           <cell r="E82">
-            <v>0</v>
+            <v>0.11</v>
           </cell>
           <cell r="F82">
-            <v>0.11</v>
+            <v>0</v>
           </cell>
           <cell r="G82">
-            <v>0</v>
-          </cell>
-          <cell r="H82">
             <v>0</v>
           </cell>
         </row>
@@ -3683,15 +3260,12 @@
             <v>0.67666775777999999</v>
           </cell>
           <cell r="E83">
-            <v>0</v>
+            <v>0.18</v>
           </cell>
           <cell r="F83">
-            <v>0.18</v>
+            <v>0</v>
           </cell>
           <cell r="G83">
-            <v>0</v>
-          </cell>
-          <cell r="H83">
             <v>0</v>
           </cell>
         </row>
@@ -3709,15 +3283,12 @@
             <v>0.64551108020000003</v>
           </cell>
           <cell r="E84">
-            <v>0</v>
+            <v>0.158</v>
           </cell>
           <cell r="F84">
-            <v>0.158</v>
+            <v>0.25</v>
           </cell>
           <cell r="G84">
-            <v>0.25</v>
-          </cell>
-          <cell r="H84">
             <v>0.25</v>
           </cell>
         </row>
@@ -3735,15 +3306,12 @@
             <v>0.59936596939999998</v>
           </cell>
           <cell r="E85">
-            <v>0</v>
+            <v>0.13800000000000001</v>
           </cell>
           <cell r="F85">
-            <v>0.13800000000000001</v>
+            <v>0.25</v>
           </cell>
           <cell r="G85">
-            <v>0.25</v>
-          </cell>
-          <cell r="H85">
             <v>0.25</v>
           </cell>
         </row>
@@ -3761,15 +3329,12 @@
             <v>0.56323230970000004</v>
           </cell>
           <cell r="E86">
-            <v>0</v>
+            <v>0.13</v>
           </cell>
           <cell r="F86">
-            <v>0.13100000000000001</v>
+            <v>0.25</v>
           </cell>
           <cell r="G86">
-            <v>0.25</v>
-          </cell>
-          <cell r="H86">
             <v>0.25</v>
           </cell>
         </row>
@@ -3787,15 +3352,12 @@
             <v>0.57710998661000001</v>
           </cell>
           <cell r="E87">
-            <v>0</v>
+            <v>0.13</v>
           </cell>
           <cell r="F87">
-            <v>0.12</v>
+            <v>0.25</v>
           </cell>
           <cell r="G87">
-            <v>0.25</v>
-          </cell>
-          <cell r="H87">
             <v>0.25</v>
           </cell>
         </row>
@@ -3803,26 +3365,23 @@
           <cell r="A88">
             <v>42736</v>
           </cell>
-          <cell r="B88" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="C88" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="D88" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="E88" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="F88" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G88" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H88" t="e">
-            <v>#N/A</v>
+          <cell r="B88">
+            <v>0</v>
+          </cell>
+          <cell r="C88">
+            <v>0.622</v>
+          </cell>
+          <cell r="D88">
+            <v>0.61275446703000003</v>
+          </cell>
+          <cell r="E88">
+            <v>0.13</v>
+          </cell>
+          <cell r="F88">
+            <v>0.25</v>
+          </cell>
+          <cell r="G88">
+            <v>0.25</v>
           </cell>
         </row>
         <row r="89">
@@ -3847,9 +3406,6 @@
           <cell r="G89" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H89" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="90">
           <cell r="A90">
@@ -3873,9 +3429,6 @@
           <cell r="G90" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H90" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="91">
           <cell r="A91">
@@ -3899,9 +3452,6 @@
           <cell r="G91" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H91" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="92">
           <cell r="A92">
@@ -3925,9 +3475,6 @@
           <cell r="G92" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H92" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="93">
           <cell r="A93">
@@ -3951,9 +3498,6 @@
           <cell r="G93" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H93" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="94">
           <cell r="A94">
@@ -3977,9 +3521,6 @@
           <cell r="G94" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H94" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="95">
           <cell r="A95">
@@ -4003,9 +3544,6 @@
           <cell r="G95" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H95" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="96">
           <cell r="A96">
@@ -4029,9 +3567,6 @@
           <cell r="G96" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H96" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="97">
           <cell r="A97">
@@ -4055,9 +3590,6 @@
           <cell r="G97" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H97" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="98">
           <cell r="A98">
@@ -4081,9 +3613,6 @@
           <cell r="G98" t="e">
             <v>#N/A</v>
           </cell>
-          <cell r="H98" t="e">
-            <v>#N/A</v>
-          </cell>
         </row>
         <row r="99">
           <cell r="A99">
@@ -4105,9 +3634,6 @@
             <v>#N/A</v>
           </cell>
           <cell r="G99" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H99" t="e">
             <v>#N/A</v>
           </cell>
         </row>
@@ -4409,7 +3935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K104"/>
+  <dimension ref="A2:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4426,7 +3952,7 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -4437,47 +3963,43 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6" t="s">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>40909</v>
       </c>
@@ -4491,22 +4013,19 @@
         <v>0.1</v>
       </c>
       <c r="E28" s="11">
-        <v>0</v>
+        <v>4.3983225799999998E-2</v>
       </c>
       <c r="F28" s="11">
-        <v>4.3983225799999998E-2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="11">
         <v>0</v>
       </c>
       <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
         <v>0.85898322579999997</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>40940</v>
       </c>
@@ -4520,23 +4039,20 @@
         <v>2.5600000000000001E-2</v>
       </c>
       <c r="E29" s="11">
-        <v>0</v>
+        <v>8.4899724199999999E-2</v>
       </c>
       <c r="F29" s="11">
-        <v>8.4899724199999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G29" s="11">
         <v>0</v>
       </c>
       <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
         <v>0.67549972419999993</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>40969</v>
       </c>
@@ -4550,22 +4066,19 @@
         <v>9.5200000000000007E-2</v>
       </c>
       <c r="E30" s="11">
-        <v>0</v>
+        <v>0.1919608387</v>
       </c>
       <c r="F30" s="11">
-        <v>0.1919608387</v>
+        <v>0</v>
       </c>
       <c r="G30" s="11">
         <v>0</v>
       </c>
       <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
         <v>0.75216083870000006</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>41000</v>
       </c>
@@ -4579,22 +4092,19 @@
         <v>1.4800000000000001E-2</v>
       </c>
       <c r="E31" s="11">
-        <v>0</v>
+        <v>5.0695999999999998E-2</v>
       </c>
       <c r="F31" s="11">
-        <v>5.0695999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="G31" s="11">
         <v>0</v>
       </c>
       <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
         <v>0.63049600000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>41030</v>
       </c>
@@ -4608,22 +4118,19 @@
         <v>8.4400000000000003E-2</v>
       </c>
       <c r="E32" s="11">
-        <v>0</v>
+        <v>0.18150554799999999</v>
       </c>
       <c r="F32" s="11">
-        <v>0.18150554799999999</v>
+        <v>0</v>
       </c>
       <c r="G32" s="11">
         <v>0</v>
       </c>
       <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
         <v>0.905905548</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>41061</v>
       </c>
@@ -4637,22 +4144,19 @@
         <v>0.104</v>
       </c>
       <c r="E33" s="11">
-        <v>0</v>
+        <v>0.15819480029999999</v>
       </c>
       <c r="F33" s="11">
-        <v>0.15819480029999999</v>
+        <v>0</v>
       </c>
       <c r="G33" s="11">
         <v>0</v>
       </c>
       <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
         <v>0.97719480030000005</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>41091</v>
       </c>
@@ -4666,22 +4170,19 @@
         <v>0.1285</v>
       </c>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>0.1051174194</v>
       </c>
       <c r="F34" s="11">
-        <v>0.1051174194</v>
+        <v>0</v>
       </c>
       <c r="G34" s="11">
         <v>0</v>
       </c>
       <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
         <v>1.0986174194</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>41122</v>
       </c>
@@ -4695,22 +4196,19 @@
         <v>7.85E-2</v>
       </c>
       <c r="E35" s="11">
-        <v>0</v>
+        <v>0.11111096769999999</v>
       </c>
       <c r="F35" s="11">
-        <v>0.11111096769999999</v>
+        <v>0</v>
       </c>
       <c r="G35" s="11">
         <v>0</v>
       </c>
       <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
         <v>1.1046109677</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>41153</v>
       </c>
@@ -4724,22 +4222,19 @@
         <v>0.22850000000000001</v>
       </c>
       <c r="E36" s="11">
-        <v>0</v>
+        <v>2.71613333E-2</v>
       </c>
       <c r="F36" s="11">
-        <v>2.71613333E-2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
       </c>
       <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
         <v>1.0706613332999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>41183</v>
       </c>
@@ -4753,22 +4248,19 @@
         <v>0.32850000000000001</v>
       </c>
       <c r="E37" s="11">
-        <v>0</v>
+        <v>2.4803871000000002E-2</v>
       </c>
       <c r="F37" s="11">
-        <v>2.4803871000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="11">
         <v>0</v>
       </c>
       <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
         <v>1.218303871</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>41214</v>
       </c>
@@ -4782,22 +4274,19 @@
         <v>0.3785</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>8.2974066999999999E-2</v>
       </c>
       <c r="F38" s="11">
-        <v>8.2974066999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
       </c>
       <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
         <v>1.3764740670000002</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>41244</v>
       </c>
@@ -4811,22 +4300,19 @@
         <v>0.17849999999999999</v>
       </c>
       <c r="E39" s="11">
-        <v>0</v>
+        <v>0.2632729681</v>
       </c>
       <c r="F39" s="11">
-        <v>0.2632729681</v>
+        <v>0</v>
       </c>
       <c r="G39" s="11">
         <v>0</v>
       </c>
       <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
         <v>1.4567729681000001</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>41275</v>
       </c>
@@ -4840,22 +4326,19 @@
         <v>0.25524999999999998</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>0.20516999999999999</v>
       </c>
       <c r="F40" s="11">
-        <v>0.20516999999999999</v>
+        <v>0</v>
       </c>
       <c r="G40" s="11">
         <v>0</v>
       </c>
       <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
         <v>1.3754199999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>41306</v>
       </c>
@@ -4869,22 +4352,19 @@
         <v>0.35525000000000001</v>
       </c>
       <c r="E41" s="11">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F41" s="11">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G41" s="11">
         <v>0</v>
       </c>
       <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
         <v>1.2802500000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>41334</v>
       </c>
@@ -4898,22 +4378,19 @@
         <v>0.2601</v>
       </c>
       <c r="E42" s="11">
-        <v>0</v>
+        <v>0.13548499999999999</v>
       </c>
       <c r="F42" s="11">
-        <v>0.13548499999999999</v>
+        <v>0</v>
       </c>
       <c r="G42" s="11">
         <v>0</v>
       </c>
       <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
         <v>1.3105850000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>41365</v>
       </c>
@@ -4927,22 +4404,19 @@
         <v>0.28300999999999998</v>
       </c>
       <c r="E43" s="11">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F43" s="11">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="G43" s="11">
         <v>0</v>
       </c>
       <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
         <v>1.18801</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>41395</v>
       </c>
@@ -4956,22 +4430,19 @@
         <v>0.26591999999999999</v>
       </c>
       <c r="E44" s="11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F44" s="11">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G44" s="11">
         <v>0</v>
       </c>
       <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
         <v>1.2309199999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>41426</v>
       </c>
@@ -4985,22 +4456,19 @@
         <v>0.41882999999999998</v>
       </c>
       <c r="E45" s="11">
-        <v>0</v>
+        <v>0.232125</v>
       </c>
       <c r="F45" s="11">
-        <v>0.232125</v>
+        <v>0</v>
       </c>
       <c r="G45" s="11">
         <v>0</v>
       </c>
       <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
         <v>1.785955</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>41456</v>
       </c>
@@ -5014,22 +4482,19 @@
         <v>0.29174</v>
       </c>
       <c r="E46" s="11">
-        <v>0</v>
+        <v>0.232125</v>
       </c>
       <c r="F46" s="11">
-        <v>0.232125</v>
+        <v>0</v>
       </c>
       <c r="G46" s="11">
         <v>0</v>
       </c>
       <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
         <v>1.8038649999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>41487</v>
       </c>
@@ -5043,22 +4508,19 @@
         <v>0.32464999999999999</v>
       </c>
       <c r="E47" s="11">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F47" s="11">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="G47" s="11">
         <v>0</v>
       </c>
       <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
         <v>2.1346499999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>41518</v>
       </c>
@@ -5072,22 +4534,19 @@
         <v>0.27465000000000001</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>0.48212500000000003</v>
       </c>
       <c r="F48" s="11">
-        <v>0.48212500000000003</v>
+        <v>0</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
       </c>
       <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
         <v>2.6767749999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>41548</v>
       </c>
@@ -5101,22 +4560,19 @@
         <v>0.32464999999999999</v>
       </c>
       <c r="E49" s="11">
-        <v>0</v>
+        <v>0.30212499999999998</v>
       </c>
       <c r="F49" s="11">
-        <v>0.30212499999999998</v>
+        <v>0</v>
       </c>
       <c r="G49" s="11">
         <v>0</v>
       </c>
       <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
         <v>2.3567749999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>41579</v>
       </c>
@@ -5130,22 +4586,19 @@
         <v>0.30464999999999998</v>
       </c>
       <c r="E50" s="11">
-        <v>0</v>
+        <v>0.172125</v>
       </c>
       <c r="F50" s="11">
-        <v>0.172125</v>
+        <v>0</v>
       </c>
       <c r="G50" s="11">
         <v>0</v>
       </c>
       <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
         <v>2.536775</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>41609</v>
       </c>
@@ -5159,22 +4612,19 @@
         <v>0.34465000000000001</v>
       </c>
       <c r="E51" s="11">
-        <v>0</v>
+        <v>0.21212500000000001</v>
       </c>
       <c r="F51" s="11">
-        <v>0.21212500000000001</v>
+        <v>0</v>
       </c>
       <c r="G51" s="11">
         <v>0</v>
       </c>
       <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
         <v>2.6067749999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>41640</v>
       </c>
@@ -5188,22 +4638,19 @@
         <v>0.20119999999999999</v>
       </c>
       <c r="E52" s="11">
-        <v>0.02</v>
+        <v>0.32264112902999997</v>
       </c>
       <c r="F52" s="11">
-        <v>0.32264112902999997</v>
+        <v>0</v>
       </c>
       <c r="G52" s="11">
         <v>0</v>
       </c>
       <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>2.21384112903</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.1938411290299999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>41671</v>
       </c>
@@ -5217,22 +4664,19 @@
         <v>0.25119999999999998</v>
       </c>
       <c r="E53" s="11">
-        <v>0.02</v>
+        <v>0.107</v>
       </c>
       <c r="F53" s="11">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="G53" s="11">
         <v>0</v>
       </c>
       <c r="H53" s="11">
-        <v>0</v>
-      </c>
-      <c r="I53" s="11">
-        <v>2.1781999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.1581999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>41699</v>
       </c>
@@ -5246,22 +4690,19 @@
         <v>0.30120000000000002</v>
       </c>
       <c r="E54" s="11">
-        <v>0</v>
+        <v>0.374</v>
       </c>
       <c r="F54" s="11">
-        <v>0.374</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
         <v>2.6052000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>41730</v>
       </c>
@@ -5275,22 +4716,19 @@
         <v>0.25119999999999998</v>
       </c>
       <c r="E55" s="11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F55" s="11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G55" s="11">
         <v>0</v>
       </c>
       <c r="H55" s="11">
-        <v>0</v>
-      </c>
-      <c r="I55" s="11">
         <v>2.5211999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>41760</v>
       </c>
@@ -5304,22 +4742,19 @@
         <v>0.35120000000000001</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F56" s="11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G56" s="11">
         <v>0</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
         <v>2.6012</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>41791</v>
       </c>
@@ -5333,22 +4768,19 @@
         <v>0.25119999999999998</v>
       </c>
       <c r="E57" s="11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F57" s="11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G57" s="11">
         <v>0</v>
       </c>
       <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
         <v>2.5961999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>41821</v>
       </c>
@@ -5362,22 +4794,19 @@
         <v>0.20119999999999999</v>
       </c>
       <c r="E58" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F58" s="11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G58" s="11">
         <v>0</v>
       </c>
       <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
         <v>2.4462000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>41852</v>
       </c>
@@ -5391,22 +4820,19 @@
         <v>0.156</v>
       </c>
       <c r="E59" s="11">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F59" s="11">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="G59" s="11">
         <v>0</v>
       </c>
       <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
         <v>2.2559999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>41883</v>
       </c>
@@ -5420,22 +4846,19 @@
         <v>0.21560000000000001</v>
       </c>
       <c r="E60" s="11">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F60" s="11">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="G60" s="11">
         <v>0</v>
       </c>
       <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
         <v>2.0606</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>41913</v>
       </c>
@@ -5449,22 +4872,19 @@
         <v>0.32519999999999999</v>
       </c>
       <c r="E61" s="11">
-        <v>0</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F61" s="11">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="G61" s="11">
         <v>0</v>
       </c>
       <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
         <v>1.9802</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>41944</v>
       </c>
@@ -5478,22 +4898,19 @@
         <v>0.2848</v>
       </c>
       <c r="E62" s="11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F62" s="11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G62" s="11">
         <v>0</v>
       </c>
       <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
         <v>2.2498</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>41974</v>
       </c>
@@ -5507,22 +4924,19 @@
         <v>0.28960000000000002</v>
       </c>
       <c r="E63" s="11">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F63" s="11">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="G63" s="11">
         <v>0</v>
       </c>
       <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
         <v>2.3096000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>42005</v>
       </c>
@@ -5536,22 +4950,19 @@
         <v>0.19075</v>
       </c>
       <c r="E64" s="11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F64" s="11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G64" s="11">
         <v>0</v>
       </c>
       <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
         <v>2.3507500000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>42036</v>
       </c>
@@ -5565,22 +4976,19 @@
         <v>0.16689999999999999</v>
       </c>
       <c r="E65" s="11">
-        <v>0</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="F65" s="11">
-        <v>0.25700000000000001</v>
+        <v>0</v>
       </c>
       <c r="G65" s="11">
         <v>0</v>
       </c>
       <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
         <v>2.2939000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>42064</v>
       </c>
@@ -5594,22 +5002,19 @@
         <v>0.2419</v>
       </c>
       <c r="E66" s="11">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F66" s="11">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G66" s="11">
         <v>0</v>
       </c>
       <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
         <v>2.1469</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>42095</v>
       </c>
@@ -5623,22 +5028,19 @@
         <v>0.16805</v>
       </c>
       <c r="E67" s="11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F67" s="11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="11">
         <v>0</v>
       </c>
       <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
         <v>1.9930500000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>42125</v>
       </c>
@@ -5652,22 +5054,19 @@
         <v>0.39305000000000001</v>
       </c>
       <c r="E68" s="11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F68" s="11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="11">
         <v>0</v>
       </c>
       <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
         <v>2.35805</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>42156</v>
       </c>
@@ -5681,22 +5080,19 @@
         <v>0.34305000000000002</v>
       </c>
       <c r="E69" s="11">
-        <v>0</v>
+        <v>0.127</v>
       </c>
       <c r="F69" s="11">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="G69" s="11">
         <v>0</v>
       </c>
       <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
         <v>2.2900499999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>42186</v>
       </c>
@@ -5710,22 +5106,19 @@
         <v>0.29304999999999998</v>
       </c>
       <c r="E70" s="11">
-        <v>0</v>
+        <v>0.127</v>
       </c>
       <c r="F70" s="11">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="G70" s="11">
         <v>0</v>
       </c>
       <c r="H70" s="11">
-        <v>0</v>
-      </c>
-      <c r="I70" s="11">
         <v>2.2500499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>42217</v>
       </c>
@@ -5739,22 +5132,19 @@
         <v>0.29188750000000002</v>
       </c>
       <c r="E71" s="11">
-        <v>0</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F71" s="11">
-        <v>8.8999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="G71" s="11">
         <v>0</v>
       </c>
       <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
         <v>2.2508875000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>42248</v>
       </c>
@@ -5768,22 +5158,19 @@
         <v>0.29538662500000001</v>
       </c>
       <c r="E72" s="11">
-        <v>0</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="F72" s="11">
-        <v>7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G72" s="11">
         <v>0</v>
       </c>
       <c r="H72" s="11">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
         <v>2.2293866250000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>42278</v>
       </c>
@@ -5797,22 +5184,19 @@
         <v>0.24424725875</v>
       </c>
       <c r="E73" s="11">
-        <v>0</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="F73" s="11">
-        <v>0.28399999999999997</v>
+        <v>0</v>
       </c>
       <c r="G73" s="11">
         <v>0</v>
       </c>
       <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
         <v>2.34324725875</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>42309</v>
       </c>
@@ -5826,22 +5210,19 @@
         <v>0.24311928616</v>
       </c>
       <c r="E74" s="11">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="F74" s="11">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="G74" s="11">
         <v>0</v>
       </c>
       <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
         <v>2.2071192861600002</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>42339</v>
       </c>
@@ -5855,22 +5236,19 @@
         <v>0.32165259330000001</v>
       </c>
       <c r="E75" s="11">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="F75" s="11">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="G75" s="11">
         <v>0</v>
       </c>
       <c r="H75" s="11">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11">
         <v>2.2906525932999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>42370</v>
       </c>
@@ -5884,22 +5262,19 @@
         <v>0.34191651681000002</v>
       </c>
       <c r="E76" s="11">
-        <v>0</v>
+        <v>0.109</v>
       </c>
       <c r="F76" s="11">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="G76" s="11">
         <v>0</v>
       </c>
       <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
         <v>1.3809165168100002</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>42401</v>
       </c>
@@ -5913,22 +5288,19 @@
         <v>0.40385735163999997</v>
       </c>
       <c r="E77" s="11">
-        <v>0</v>
+        <v>0.309</v>
       </c>
       <c r="F77" s="11">
-        <v>0.309</v>
+        <v>0</v>
       </c>
       <c r="G77" s="11">
         <v>0</v>
       </c>
       <c r="H77" s="11">
-        <v>0</v>
-      </c>
-      <c r="I77" s="11">
         <v>1.6528573516399998</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>42430</v>
       </c>
@@ -5942,22 +5314,19 @@
         <v>0.48262877811999999</v>
       </c>
       <c r="E78" s="11">
-        <v>0</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="F78" s="11">
-        <v>0.28899999999999998</v>
+        <v>0</v>
       </c>
       <c r="G78" s="11">
         <v>0</v>
       </c>
       <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
         <v>1.75162877812</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>42461</v>
       </c>
@@ -5971,22 +5340,19 @@
         <v>0.5</v>
       </c>
       <c r="E79" s="11">
-        <v>0</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F79" s="11">
-        <v>0.24399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G79" s="11">
         <v>0</v>
       </c>
       <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11">
         <v>1.714</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>42491</v>
       </c>
@@ -6000,22 +5366,19 @@
         <v>0.75020836544000002</v>
       </c>
       <c r="E80" s="11">
-        <v>0</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="F80" s="11">
-        <v>0.31900000000000001</v>
+        <v>0</v>
       </c>
       <c r="G80" s="11">
         <v>0</v>
       </c>
       <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
         <v>2.0842083654399999</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>42522</v>
       </c>
@@ -6029,22 +5392,19 @@
         <v>0.61901628178000001</v>
       </c>
       <c r="E81" s="11">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F81" s="11">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="G81" s="11">
         <v>0</v>
       </c>
       <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
         <v>1.7890162817799999</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>42552</v>
       </c>
@@ -6058,22 +5418,19 @@
         <v>0.71783611896999999</v>
       </c>
       <c r="E82" s="11">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F82" s="11">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G82" s="11">
         <v>0</v>
       </c>
       <c r="H82" s="11">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11">
         <v>1.8178361189700001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>42583</v>
       </c>
@@ -6087,22 +5444,19 @@
         <v>0.67666775777999999</v>
       </c>
       <c r="E83" s="11">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F83" s="11">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G83" s="11">
         <v>0</v>
       </c>
       <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
         <v>1.90666775778</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>42614</v>
       </c>
@@ -6116,22 +5470,19 @@
         <v>0.64551108020000003</v>
       </c>
       <c r="E84" s="11">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="F84" s="11">
-        <v>0.158</v>
+        <v>0.25</v>
       </c>
       <c r="G84" s="11">
         <v>0.25</v>
       </c>
       <c r="H84" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="I84" s="11">
         <v>2.2935110802000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>42644</v>
       </c>
@@ -6145,22 +5496,19 @@
         <v>0.59936596939999998</v>
       </c>
       <c r="E85" s="11">
-        <v>0</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F85" s="11">
-        <v>0.13800000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G85" s="11">
         <v>0.25</v>
       </c>
       <c r="H85" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="I85" s="11">
         <v>1.9873659693999999</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>42675</v>
       </c>
@@ -6174,22 +5522,19 @@
         <v>0.56323230970000004</v>
       </c>
       <c r="E86" s="11">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F86" s="11">
-        <v>0.13100000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G86" s="11">
         <v>0.25</v>
       </c>
       <c r="H86" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="I86" s="11">
-        <v>1.9092323096999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.9082323096999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>42705</v>
       </c>
@@ -6203,51 +5548,45 @@
         <v>0.57710998661000001</v>
       </c>
       <c r="E87" s="11">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F87" s="11">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G87" s="11">
         <v>0.25</v>
       </c>
       <c r="H87" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="I87" s="11">
-        <v>1.8871099866100001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.8971099866099999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>42736</v>
       </c>
-      <c r="B88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I88" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="11">
+        <v>0</v>
+      </c>
+      <c r="C88" s="11">
+        <v>0.622</v>
+      </c>
+      <c r="D88" s="11">
+        <v>0.61275446703000003</v>
+      </c>
+      <c r="E88" s="11">
+        <v>0.13</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="H88" s="11">
+        <v>1.86475446703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>42767</v>
       </c>
@@ -6272,11 +5611,8 @@
       <c r="H89" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I89" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>42795</v>
       </c>
@@ -6301,11 +5637,8 @@
       <c r="H90" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I90" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>42826</v>
       </c>
@@ -6330,11 +5663,8 @@
       <c r="H91" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I91" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>42856</v>
       </c>
@@ -6359,11 +5689,8 @@
       <c r="H92" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I92" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>42887</v>
       </c>
@@ -6388,11 +5715,8 @@
       <c r="H93" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I93" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>42917</v>
       </c>
@@ -6417,11 +5741,8 @@
       <c r="H94" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I94" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>42948</v>
       </c>
@@ -6446,11 +5767,8 @@
       <c r="H95" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I95" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>42979</v>
       </c>
@@ -6475,11 +5793,8 @@
       <c r="H96" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I96" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>43009</v>
       </c>
@@ -6504,11 +5819,8 @@
       <c r="H97" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I97" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>43040</v>
       </c>
@@ -6533,11 +5845,8 @@
       <c r="H98" s="11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I98" s="11" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>43070</v>
       </c>
@@ -6562,35 +5871,32 @@
       <c r="H99" s="13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I99" s="13" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="15"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="16"/>
       <c r="B103" s="14"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="16"/>
       <c r="B104" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
-  <conditionalFormatting sqref="B28:I99">
+  <conditionalFormatting sqref="B28:H99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISNA(B28)</formula>
     </cfRule>
